--- a/unit/exp/software/sim_coeff_select_final_version/sim_coeff_selet_gradient_final_version_summary_appr_mul.xlsx
+++ b/unit/exp/software/sim_coeff_select_final_version/sim_coeff_selet_gradient_final_version_summary_appr_mul.xlsx
@@ -8,25 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wudidaizi/Project/approximate_computing/unit/exp/software/sim_coeff_select_final_version/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A416AD1-9AE9-D94A-BC96-60B7BC172267}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA5D247-7D6F-9947-B6A2-8AA13B059533}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="7360" windowWidth="25920" windowHeight="13640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5200" yWindow="10160" windowWidth="25920" windowHeight="13640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.75_0.1" sheetId="1" r:id="rId1"/>
     <sheet name="0.5_0.1" sheetId="2" r:id="rId2"/>
     <sheet name="0.25_0.1" sheetId="3" r:id="rId3"/>
-    <sheet name="uniform" sheetId="4" r:id="rId4"/>
+    <sheet name="uniform_selected" sheetId="4" r:id="rId4"/>
     <sheet name="mul 8" sheetId="5" r:id="rId5"/>
-    <sheet name="mul 12" sheetId="6" r:id="rId6"/>
-    <sheet name="mul 16" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="46">
   <si>
     <t>Bit Width:</t>
   </si>
@@ -115,56 +113,62 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>mul8u_13QR</t>
-  </si>
-  <si>
-    <t>mul8u_JV3</t>
-  </si>
-  <si>
-    <t>mae</t>
-  </si>
-  <si>
-    <t>wce</t>
-  </si>
-  <si>
-    <t>mre</t>
-  </si>
-  <si>
-    <t>ep</t>
-  </si>
-  <si>
-    <t>mse</t>
-  </si>
-  <si>
-    <t>mul8u_18DU</t>
-  </si>
-  <si>
-    <t>mul8u_17C8</t>
-  </si>
-  <si>
-    <t>mul8u_YX7</t>
-  </si>
-  <si>
-    <t>mul8u_QKX</t>
-  </si>
-  <si>
-    <t>mul8u_17QU</t>
-  </si>
-  <si>
-    <t>mul8u_17KS</t>
-  </si>
-  <si>
-    <t>mul8u_FTA</t>
-  </si>
-  <si>
-    <t>0.89 %	4.29 %	13.96 %	98.74 %	0.084	214.5</t>
+    <t>mul8u_1JFF [1]</t>
+  </si>
+  <si>
+    <t>mul8u_2P7 [1]</t>
+  </si>
+  <si>
+    <t>mul8u_KEM [1]</t>
+  </si>
+  <si>
+    <t>mul8u_QJD [1]</t>
+  </si>
+  <si>
+    <t>mul8u_NGR [1]</t>
+  </si>
+  <si>
+    <t>mul8u_DM1 [1]</t>
+  </si>
+  <si>
+    <t>mul8u_1AGV [1]</t>
+  </si>
+  <si>
+    <t>mul8u_18DU [1]</t>
+  </si>
+  <si>
+    <t>mul8u_17C8 [1]</t>
+  </si>
+  <si>
+    <t>mul8u_199Z [1]</t>
+  </si>
+  <si>
+    <t>Circuit name</t>
+  </si>
+  <si>
+    <t>MAE</t>
+  </si>
+  <si>
+    <t>WCE</t>
+  </si>
+  <si>
+    <t>MRE</t>
+  </si>
+  <si>
+    <t>EP</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>area</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -301,7 +305,29 @@
     </font>
     <font>
       <sz val="14"/>
-      <color rgb="FF183D4E"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -603,7 +629,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -646,13 +672,18 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -686,6 +717,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -2121,8 +2153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2257C51C-7C6F-B042-9346-36F39379A581}">
   <dimension ref="A1:AB4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2478,10 +2510,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{822244EA-24BC-2B4E-9047-4B886E2181E5}">
-  <dimension ref="A8:J24"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2492,101 +2524,279 @@
     <col min="6" max="6" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>198</v>
+    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="G2" s="4">
+        <v>709.6</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>490</v>
+    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1.5E-5</v>
+      </c>
+      <c r="C3" s="3">
+        <v>4.6E-5</v>
+      </c>
+      <c r="D3" s="3">
+        <v>5.1999999999999995E-4</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.64059999999999995</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="G3" s="4">
+        <v>676.3</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C19" t="s">
-        <v>43</v>
+    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="3">
+        <v>4.6E-5</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1.8E-3</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.37</v>
+      </c>
+      <c r="G4" s="4">
+        <v>637.79999999999995</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20" t="s">
-        <v>29</v>
+    <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1.7000000000000001E-4</v>
+      </c>
+      <c r="C5" s="3">
+        <v>8.1999999999999998E-4</v>
+      </c>
+      <c r="D5" s="3">
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.748</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="G5" s="4">
+        <v>624.20000000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J21" t="s">
-        <v>41</v>
+    <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="3">
+        <v>6.4999999999999997E-4</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.9637</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="G6" s="4">
+        <v>511.5</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" t="s">
-        <v>39</v>
-      </c>
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="D7" s="3">
+        <v>4.7300000000000002E-2</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.98160000000000003</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="G7" s="4">
+        <v>401.7</v>
+      </c>
+      <c r="H7" s="5"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" t="s">
+    <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="3">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2.9399999999999999E-2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.12139999999999999</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.99050000000000005</v>
+      </c>
+      <c r="F8" s="4">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="G8" s="4">
+        <v>228.5</v>
+      </c>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2.2800000000000001E-2</v>
+      </c>
+      <c r="C9" s="3">
+        <v>9.0800000000000006E-2</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.28420000000000001</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.99160000000000004</v>
+      </c>
+      <c r="F9" s="4">
+        <v>3.1E-2</v>
+      </c>
+      <c r="G9" s="4">
+        <v>96.7</v>
+      </c>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="3">
+        <v>7.4099999999999999E-2</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.25779999999999997</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.57809999999999995</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.99209999999999998</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1.9E-3</v>
+      </c>
+      <c r="G10" s="4">
+        <v>15.5</v>
+      </c>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="B11" s="3">
+        <v>0.24809999999999999</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.99219999999999997</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.99219999999999997</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" t="s">
-        <v>36</v>
-      </c>
-      <c r="F24" t="s">
-        <v>37</v>
-      </c>
+    <row r="22" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F22" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFCB6DF1-73EC-CB4C-99F0-6A82EEDA02FD}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F903B06-722E-BC46-9031-2CC807E9DA07}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://ehw.fit.vutbr.cz/evoapproxlib/?folder=multiplers/8x8_unsigned/pareto_pwr_mse&amp;file=mul8u_1JFF_pdk45.v" xr:uid="{A679006A-85CC-3D4D-BC6B-78B95F2B061C}"/>
+    <hyperlink ref="A3" r:id="rId2" display="https://ehw.fit.vutbr.cz/evoapproxlib/?folder=multiplers/8x8_unsigned/pareto_pwr_mse&amp;file=mul8u_2P7.v" xr:uid="{69CC76CD-E11B-E94A-8FE7-BE8DC8C21627}"/>
+    <hyperlink ref="A4" r:id="rId3" display="https://ehw.fit.vutbr.cz/evoapproxlib/?folder=multiplers/8x8_unsigned/pareto_pwr_mse&amp;file=mul8u_KEM.v" xr:uid="{980194CC-E72A-D747-994D-D29B278AE8C8}"/>
+    <hyperlink ref="A5" r:id="rId4" display="https://ehw.fit.vutbr.cz/evoapproxlib/?folder=multiplers/8x8_unsigned/pareto_pwr_mse&amp;file=mul8u_QJD.v" xr:uid="{1115FB2F-87C1-4B4F-9B6E-E0C3DD5A0917}"/>
+    <hyperlink ref="A6" r:id="rId5" display="https://ehw.fit.vutbr.cz/evoapproxlib/?folder=multiplers/8x8_unsigned/pareto_pwr_mse&amp;file=mul8u_NGR.v" xr:uid="{F4245155-8E30-9F45-B359-CD268A121B1A}"/>
+    <hyperlink ref="A7" r:id="rId6" display="https://ehw.fit.vutbr.cz/evoapproxlib/?folder=multiplers/8x8_unsigned/pareto_pwr_mse&amp;file=mul8u_DM1.v" xr:uid="{0C2F85BF-E09E-3843-8E1F-19F18842D4DB}"/>
+    <hyperlink ref="A8" r:id="rId7" display="https://ehw.fit.vutbr.cz/evoapproxlib/?folder=multiplers/8x8_unsigned/pareto_pwr_mse&amp;file=mul8u_1AGV.v" xr:uid="{A8CAF869-4679-6742-91EB-B363F405B242}"/>
+    <hyperlink ref="A9" r:id="rId8" display="https://ehw.fit.vutbr.cz/evoapproxlib/?folder=multiplers/8x8_unsigned/pareto_pwr_mse&amp;file=mul8u_18DU.v" xr:uid="{2587D1AF-16C0-DF42-BBC3-CF055A34EC61}"/>
+    <hyperlink ref="A10" r:id="rId9" display="https://ehw.fit.vutbr.cz/evoapproxlib/?folder=multiplers/8x8_unsigned/pareto_pwr_mse&amp;file=mul8u_17C8.v" xr:uid="{23CDEAD9-258E-1049-AA0B-6E809AF49EB7}"/>
+    <hyperlink ref="A11" r:id="rId10" display="https://ehw.fit.vutbr.cz/evoapproxlib/?folder=multiplers/8x8_unsigned/pareto_pwr_mse&amp;file=mul8u_199Z.v" xr:uid="{32FAAE09-6383-E344-9188-2C12B69A46CC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/unit/exp/software/sim_coeff_select_final_version/sim_coeff_selet_gradient_final_version_summary_appr_mul.xlsx
+++ b/unit/exp/software/sim_coeff_select_final_version/sim_coeff_selet_gradient_final_version_summary_appr_mul.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wudidaizi/Project/approximate_computing/unit/exp/software/sim_coeff_select_final_version/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA5D247-7D6F-9947-B6A2-8AA13B059533}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF133B1-851E-8D4E-8AF5-3C0F7FB85C60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5200" yWindow="10160" windowWidth="25920" windowHeight="13640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9780" yWindow="2660" windowWidth="23820" windowHeight="16040" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.75_0.1" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,16 @@
     <sheet name="0.25_0.1" sheetId="3" r:id="rId3"/>
     <sheet name="uniform_selected" sheetId="4" r:id="rId4"/>
     <sheet name="mul 8" sheetId="5" r:id="rId5"/>
+    <sheet name="mul12" sheetId="8" r:id="rId6"/>
+    <sheet name="mul16" sheetId="9" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="89">
   <si>
     <t>Bit Width:</t>
   </si>
@@ -162,12 +165,144 @@
   </si>
   <si>
     <t>area</t>
+  </si>
+  <si>
+    <t>mul12u_1BG [1]</t>
+  </si>
+  <si>
+    <t>mul12u_2EC [2]</t>
+  </si>
+  <si>
+    <t>mul12u_2EE [2]</t>
+  </si>
+  <si>
+    <t>mul12u_2EG [2]</t>
+  </si>
+  <si>
+    <t>mul12u_2EJ [2]</t>
+  </si>
+  <si>
+    <t>mul12u_2CP [2]</t>
+  </si>
+  <si>
+    <t>mul12u_2QN [2]</t>
+  </si>
+  <si>
+    <t>mul12u_2J4 [2]</t>
+  </si>
+  <si>
+    <t>mul12u_33E [2]</t>
+  </si>
+  <si>
+    <t>mul12u_35V [2]</t>
+  </si>
+  <si>
+    <t>predict_mean</t>
+  </si>
+  <si>
+    <t>predict_max</t>
+  </si>
+  <si>
+    <t>mul16u_BMC [1]</t>
+  </si>
+  <si>
+    <t>mul16u_AQ1 [1]</t>
+  </si>
+  <si>
+    <t>mul16u_5FA [1]</t>
+  </si>
+  <si>
+    <t>mul16u_DAE [1]</t>
+  </si>
+  <si>
+    <t>mul16u_F6B [1]</t>
+  </si>
+  <si>
+    <t>mul16u_CK3 [1]</t>
+  </si>
+  <si>
+    <t>mul16u_8VH [1]</t>
+  </si>
+  <si>
+    <t>mul16u_GPF [1]</t>
+  </si>
+  <si>
+    <t>mul16u_HGP [1]</t>
+  </si>
+  <si>
+    <t>mul16u_HGY [1]</t>
+  </si>
+  <si>
+    <t>actual 1</t>
+  </si>
+  <si>
+    <t>actual 2</t>
+  </si>
+  <si>
+    <t>mul8</t>
+  </si>
+  <si>
+    <t>MAX_pred</t>
+  </si>
+  <si>
+    <t>real 1</t>
+  </si>
+  <si>
+    <t>real 2</t>
+  </si>
+  <si>
+    <t>max real</t>
+  </si>
+  <si>
+    <t>mul12</t>
+  </si>
+  <si>
+    <t>max real less than max pred</t>
+  </si>
+  <si>
+    <t>min real</t>
+  </si>
+  <si>
+    <t>mul16</t>
+  </si>
+  <si>
+    <t>0.001559,</t>
+  </si>
+  <si>
+    <t>0.001589,</t>
+  </si>
+  <si>
+    <t>0.001681,</t>
+  </si>
+  <si>
+    <t>0.002260,</t>
+  </si>
+  <si>
+    <t>0.005380,</t>
+  </si>
+  <si>
+    <t>0.012063,</t>
+  </si>
+  <si>
+    <t>0.030029,</t>
+  </si>
+  <si>
+    <t>0.070488,</t>
+  </si>
+  <si>
+    <t>0.146630,</t>
+  </si>
+  <si>
+    <t>0.264589,</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000%"/>
+  </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -310,29 +445,26 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -512,6 +644,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -629,7 +767,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -672,18 +810,33 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="20" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -717,7 +870,6 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -739,6 +891,2880 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>mul8</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>mul8 real</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$3:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6.8079999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0860000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5914000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.1980000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.9318000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.20146500000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-17BD-784B-9376-D060ABAA93ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>mul8 pred</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.3800000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2063000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0029E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0487999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14663000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.26458900000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-17BD-784B-9376-D060ABAA93ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1702286272"/>
+        <c:axId val="1702516224"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1702286272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1702516224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1702516224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1702286272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>mul12</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>mul12 real</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$12:$G$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>9.4899999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1509999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2539999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.1050000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5889999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.20146500000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.75238000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E093-BD48-8DEF-B253048318A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>mul12 pred</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$12:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.7899999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2260000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0769999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6135E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.6832000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.23099800000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.78719700000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E093-BD48-8DEF-B253048318A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1702286272"/>
+        <c:axId val="1702516224"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1702286272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1702516224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1702516224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1702286272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>mul16</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>mul16 real</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$22:$G$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.7500000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8200000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.2699999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5349999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.7110999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.29901899999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D733-1940-801A-10F7DC4E056D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>mul16 pred</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$22:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.8099999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7100000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6329999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.6610000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9966999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.28976800000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-D733-1940-801A-10F7DC4E056D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1702286272"/>
+        <c:axId val="1702516224"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1702286272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1702516224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1702516224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1702286272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>615950</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEE26EFB-A3AF-524D-BA57-88AD921C6FAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E930464-498A-6B4D-869D-2C9BDDF7F3E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6399BCA1-79B8-3448-941B-F375F45C237A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2153,8 +5179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2257C51C-7C6F-B042-9346-36F39379A581}">
   <dimension ref="A1:AB4"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2505,298 +5531,1973 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{822244EA-24BC-2B4E-9047-4B886E2181E5}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.1640625" customWidth="1"/>
-    <col min="2" max="2" width="34.1640625" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" customWidth="1"/>
-    <col min="6" max="6" width="19.83203125" customWidth="1"/>
+    <col min="1" max="1" width="19.83203125" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" customWidth="1"/>
+    <col min="8" max="9" width="18.83203125" customWidth="1"/>
+    <col min="10" max="10" width="16.5" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>45</v>
       </c>
+      <c r="H1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>0</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>0</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="7">
         <v>0</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>0</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>0.39100000000000001</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <v>709.6</v>
       </c>
+      <c r="H2" s="6">
+        <v>2.3E-3</v>
+      </c>
+      <c r="I2" s="6">
+        <v>1.5590000000000001E-3</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="20" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>1.5E-5</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>4.6E-5</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="7">
         <v>5.1999999999999995E-4</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>0.64059999999999995</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>0.38600000000000001</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>676.3</v>
       </c>
+      <c r="H3" s="6">
+        <v>2.3E-3</v>
+      </c>
+      <c r="I3" s="6">
+        <v>1.5889999999999999E-3</v>
+      </c>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="20" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>4.6E-5</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>1.7000000000000001E-4</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="7">
         <v>1.8E-3</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>0.75</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>0.37</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>637.79999999999995</v>
       </c>
+      <c r="H4" s="6">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="I4" s="6">
+        <v>1.681E-3</v>
+      </c>
+      <c r="J4" s="6">
+        <v>6.4530000000000004E-3</v>
+      </c>
+      <c r="K4" s="6">
+        <v>6.4530000000000004E-3</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>1.7000000000000001E-4</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>8.1999999999999998E-4</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="7">
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>0.748</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>0.34399999999999997</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>624.20000000000005</v>
       </c>
+      <c r="H5" s="6">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="I5" s="6">
+        <v>2.2599999999999999E-3</v>
+      </c>
+      <c r="J5" s="6">
+        <v>6.5950000000000002E-3</v>
+      </c>
+      <c r="K5" s="6">
+        <v>6.4859999999999996E-3</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>82</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="10">
         <v>6.4999999999999997E-4</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="10">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="11">
         <v>1.9E-2</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="10">
         <v>0.9637</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="12">
         <v>0.27600000000000002</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="12">
         <v>511.5</v>
       </c>
+      <c r="H6" s="13">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="I6" s="6">
+        <v>5.3800000000000002E-3</v>
+      </c>
+      <c r="J6" s="13">
+        <v>6.8079999999999998E-3</v>
+      </c>
+      <c r="K6" s="13">
+        <v>6.8970000000000004E-3</v>
+      </c>
+      <c r="L6" s="20" t="s">
+        <v>83</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="10">
         <v>2E-3</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="10">
         <v>8.8999999999999999E-3</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="11">
         <v>4.7300000000000002E-2</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="10">
         <v>0.98160000000000003</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="12">
         <v>0.19500000000000001</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="12">
         <v>401.7</v>
       </c>
-      <c r="H7" s="5"/>
+      <c r="H7" s="13">
+        <v>1.14E-2</v>
+      </c>
+      <c r="I7" s="6">
+        <v>1.2063000000000001E-2</v>
+      </c>
+      <c r="J7" s="13">
+        <v>8.3610000000000004E-3</v>
+      </c>
+      <c r="K7" s="13">
+        <v>7.0860000000000003E-3</v>
+      </c>
+      <c r="L7" s="20" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="10">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="10">
         <v>2.9399999999999999E-2</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="11">
         <v>0.12139999999999999</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="10">
         <v>0.99050000000000005</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="12">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="12">
         <v>228.5</v>
       </c>
-      <c r="H8" s="5"/>
+      <c r="H8" s="13">
+        <v>2.9100000000000001E-2</v>
+      </c>
+      <c r="I8" s="6">
+        <v>3.0029E-2</v>
+      </c>
+      <c r="J8" s="13">
+        <v>3.1300000000000001E-2</v>
+      </c>
+      <c r="K8" s="13">
+        <v>1.5914000000000001E-2</v>
+      </c>
+      <c r="L8" s="20" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="10">
         <v>2.2800000000000001E-2</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="10">
         <v>9.0800000000000006E-2</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="11">
         <v>0.28420000000000001</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="10">
         <v>0.99160000000000004</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="12">
         <v>3.1E-2</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="12">
         <v>96.7</v>
       </c>
-      <c r="H9" s="5"/>
+      <c r="H9" s="13">
+        <v>6.8099999999999994E-2</v>
+      </c>
+      <c r="I9" s="6">
+        <v>7.0487999999999995E-2</v>
+      </c>
+      <c r="J9" s="13">
+        <v>4.4603999999999998E-2</v>
+      </c>
+      <c r="K9" s="13">
+        <v>4.1980000000000003E-2</v>
+      </c>
+      <c r="L9" s="20" t="s">
+        <v>86</v>
+      </c>
     </row>
-    <row r="10" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="10">
         <v>7.4099999999999999E-2</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="10">
         <v>0.25779999999999997</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="11">
         <v>0.57809999999999995</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="10">
         <v>0.99209999999999998</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="12">
         <v>1.9E-3</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="12">
         <v>15.5</v>
       </c>
-      <c r="H10" s="5"/>
+      <c r="H10" s="13">
+        <v>0.13950000000000001</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0.14663000000000001</v>
+      </c>
+      <c r="J10" s="13">
+        <v>0.176978</v>
+      </c>
+      <c r="K10" s="13">
+        <v>9.9318000000000004E-2</v>
+      </c>
+      <c r="L10" s="20" t="s">
+        <v>87</v>
+      </c>
     </row>
-    <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="10">
         <v>0.24809999999999999</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="10">
         <v>0.99219999999999997</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="11">
         <v>1</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="10">
         <v>0.99219999999999997</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="12">
         <v>0</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="12">
         <v>0</v>
+      </c>
+      <c r="H11" s="13">
+        <v>0.24540000000000001</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0.26458900000000002</v>
+      </c>
+      <c r="J11" s="13">
+        <v>0.20146500000000001</v>
+      </c>
+      <c r="K11" s="13">
+        <v>0.20146500000000001</v>
+      </c>
+      <c r="L11" s="20" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F22" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://ehw.fit.vutbr.cz/evoapproxlib/?folder=multiplers/8x8_unsigned/pareto_pwr_mse&amp;file=mul8u_1JFF_pdk45.v" xr:uid="{A679006A-85CC-3D4D-BC6B-78B95F2B061C}"/>
-    <hyperlink ref="A3" r:id="rId2" display="https://ehw.fit.vutbr.cz/evoapproxlib/?folder=multiplers/8x8_unsigned/pareto_pwr_mse&amp;file=mul8u_2P7.v" xr:uid="{69CC76CD-E11B-E94A-8FE7-BE8DC8C21627}"/>
-    <hyperlink ref="A4" r:id="rId3" display="https://ehw.fit.vutbr.cz/evoapproxlib/?folder=multiplers/8x8_unsigned/pareto_pwr_mse&amp;file=mul8u_KEM.v" xr:uid="{980194CC-E72A-D747-994D-D29B278AE8C8}"/>
-    <hyperlink ref="A5" r:id="rId4" display="https://ehw.fit.vutbr.cz/evoapproxlib/?folder=multiplers/8x8_unsigned/pareto_pwr_mse&amp;file=mul8u_QJD.v" xr:uid="{1115FB2F-87C1-4B4F-9B6E-E0C3DD5A0917}"/>
-    <hyperlink ref="A6" r:id="rId5" display="https://ehw.fit.vutbr.cz/evoapproxlib/?folder=multiplers/8x8_unsigned/pareto_pwr_mse&amp;file=mul8u_NGR.v" xr:uid="{F4245155-8E30-9F45-B359-CD268A121B1A}"/>
-    <hyperlink ref="A7" r:id="rId6" display="https://ehw.fit.vutbr.cz/evoapproxlib/?folder=multiplers/8x8_unsigned/pareto_pwr_mse&amp;file=mul8u_DM1.v" xr:uid="{0C2F85BF-E09E-3843-8E1F-19F18842D4DB}"/>
-    <hyperlink ref="A8" r:id="rId7" display="https://ehw.fit.vutbr.cz/evoapproxlib/?folder=multiplers/8x8_unsigned/pareto_pwr_mse&amp;file=mul8u_1AGV.v" xr:uid="{A8CAF869-4679-6742-91EB-B363F405B242}"/>
-    <hyperlink ref="A9" r:id="rId8" display="https://ehw.fit.vutbr.cz/evoapproxlib/?folder=multiplers/8x8_unsigned/pareto_pwr_mse&amp;file=mul8u_18DU.v" xr:uid="{2587D1AF-16C0-DF42-BBC3-CF055A34EC61}"/>
-    <hyperlink ref="A10" r:id="rId9" display="https://ehw.fit.vutbr.cz/evoapproxlib/?folder=multiplers/8x8_unsigned/pareto_pwr_mse&amp;file=mul8u_17C8.v" xr:uid="{23CDEAD9-258E-1049-AA0B-6E809AF49EB7}"/>
-    <hyperlink ref="A11" r:id="rId10" display="https://ehw.fit.vutbr.cz/evoapproxlib/?folder=multiplers/8x8_unsigned/pareto_pwr_mse&amp;file=mul8u_199Z.v" xr:uid="{32FAAE09-6383-E344-9188-2C12B69A46CC}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A543D521-EBD2-F54F-90CC-A789FBDF1F64}">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+    <col min="8" max="9" width="18.1640625" customWidth="1"/>
+    <col min="10" max="10" width="20.5" customWidth="1"/>
+    <col min="11" max="11" width="18.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1.157</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1605</v>
+      </c>
+      <c r="H2" s="8"/>
+      <c r="I2" s="14">
+        <v>4.5899999999999999E-4</v>
+      </c>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+    </row>
+    <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="2">
+        <v>7.4999999999999997E-8</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2.9999999999999999E-7</v>
+      </c>
+      <c r="D3" s="7">
+        <v>6.1999999999999999E-6</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1.1519999999999999</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1584.8</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" s="14">
+        <v>4.6099999999999998E-4</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="2">
+        <v>7.3E-7</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2.9000000000000002E-6</v>
+      </c>
+      <c r="D4" s="7">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1514.9</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="14">
+        <v>4.7600000000000002E-4</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="2">
+        <v>4.7999999999999998E-6</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1.9000000000000001E-5</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2.5999999999999998E-4</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.9375</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1.0529999999999999</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1405.1</v>
+      </c>
+      <c r="H5" s="8">
+        <v>6.1160000000000001E-4</v>
+      </c>
+      <c r="I5" s="14">
+        <v>5.7899999999999998E-4</v>
+      </c>
+      <c r="J5" s="8">
+        <v>9.4899999999999997E-4</v>
+      </c>
+      <c r="K5" s="8">
+        <v>9.4899999999999997E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="10">
+        <v>2.6999999999999999E-5</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1.1E-4</v>
+      </c>
+      <c r="D6" s="11">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0.98050000000000004</v>
+      </c>
+      <c r="F6" s="12">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="G6" s="12">
+        <v>1245.5</v>
+      </c>
+      <c r="H6" s="14">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="I6" s="14">
+        <v>1.2260000000000001E-3</v>
+      </c>
+      <c r="J6" s="14">
+        <v>1.1509999999999999E-3</v>
+      </c>
+      <c r="K6" s="14">
+        <v>1.1509999999999999E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="10">
+        <v>1.3999999999999999E-4</v>
+      </c>
+      <c r="C7" s="10">
+        <v>5.5000000000000003E-4</v>
+      </c>
+      <c r="D7" s="11">
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0.99409999999999998</v>
+      </c>
+      <c r="F7" s="12">
+        <v>0.78</v>
+      </c>
+      <c r="G7" s="12">
+        <v>1049.8</v>
+      </c>
+      <c r="H7" s="14">
+        <v>3.8E-3</v>
+      </c>
+      <c r="I7" s="14">
+        <v>4.0769999999999999E-3</v>
+      </c>
+      <c r="J7" s="14">
+        <v>2.2539999999999999E-3</v>
+      </c>
+      <c r="K7" s="14">
+        <v>2.2539999999999999E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="10">
+        <v>9.2000000000000003E-4</v>
+      </c>
+      <c r="C8" s="10">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="D8" s="11">
+        <v>1.89E-2</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="F8" s="12">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="G8" s="12">
+        <v>746.2</v>
+      </c>
+      <c r="H8" s="14">
+        <v>1.4500000000000001E-2</v>
+      </c>
+      <c r="I8" s="14">
+        <v>1.6135E-2</v>
+      </c>
+      <c r="J8" s="14">
+        <v>7.1050000000000002E-3</v>
+      </c>
+      <c r="K8" s="14">
+        <v>9.4870000000000006E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="10">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="C9" s="10">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="D9" s="11">
+        <v>7.8399999999999997E-2</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="F9" s="12">
+        <v>0.22</v>
+      </c>
+      <c r="G9" s="12">
+        <v>420.5</v>
+      </c>
+      <c r="H9" s="14">
+        <v>5.91E-2</v>
+      </c>
+      <c r="I9" s="14">
+        <v>6.6832000000000003E-2</v>
+      </c>
+      <c r="J9" s="14">
+        <v>4.1579999999999999E-2</v>
+      </c>
+      <c r="K9" s="14">
+        <v>3.5889999999999998E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="10">
+        <v>3.0200000000000001E-2</v>
+      </c>
+      <c r="C10" s="10">
+        <v>0.1206</v>
+      </c>
+      <c r="D10" s="11">
+        <v>0.2671</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="F10" s="12">
+        <v>5.5E-2</v>
+      </c>
+      <c r="G10" s="12">
+        <v>167.5</v>
+      </c>
+      <c r="H10" s="14">
+        <v>0.1991</v>
+      </c>
+      <c r="I10" s="14">
+        <v>0.23099800000000001</v>
+      </c>
+      <c r="J10" s="14">
+        <v>0.20146500000000001</v>
+      </c>
+      <c r="K10" s="14">
+        <v>0.20146500000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="10">
+        <v>0.18740000000000001</v>
+      </c>
+      <c r="C11" s="10">
+        <v>0.74950000000000006</v>
+      </c>
+      <c r="D11" s="11">
+        <v>0.87980000000000003</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="F11" s="12">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="G11" s="12">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H11" s="14">
+        <v>0.62909999999999999</v>
+      </c>
+      <c r="I11" s="14">
+        <v>0.78719700000000004</v>
+      </c>
+      <c r="J11" s="14">
+        <v>0.75238000000000005</v>
+      </c>
+      <c r="K11" s="14">
+        <v>0.75238000000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53D8405A-5063-544C-9441-CDE611C339DC}">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" customWidth="1"/>
+    <col min="10" max="10" width="17" customWidth="1"/>
+    <col min="11" max="11" width="18.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>2.202</v>
+      </c>
+      <c r="G2" s="3">
+        <v>3203</v>
+      </c>
+      <c r="H2" s="8"/>
+      <c r="I2" s="18">
+        <v>3.6600000000000001E-4</v>
+      </c>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+    </row>
+    <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3E-10</v>
+      </c>
+      <c r="C3" s="2">
+        <v>9.2999999999999999E-10</v>
+      </c>
+      <c r="D3" s="7">
+        <v>4.3999999999999997E-8</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.64059999999999995</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2.1880000000000002</v>
+      </c>
+      <c r="G3" s="3">
+        <v>3118.5</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" s="18">
+        <v>3.6600000000000001E-4</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="2">
+        <v>5.6999999999999998E-9</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1.7999999999999999E-8</v>
+      </c>
+      <c r="D4" s="7">
+        <v>7.0999999999999998E-7</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.98119999999999996</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2.1349999999999998</v>
+      </c>
+      <c r="G4" s="3">
+        <v>3019.9</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="18">
+        <v>3.6600000000000001E-4</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="2">
+        <v>4.4999999999999999E-8</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2.1E-7</v>
+      </c>
+      <c r="D5" s="7">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.98709999999999998</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1.952</v>
+      </c>
+      <c r="G5" s="3">
+        <v>2800.8</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="18">
+        <v>3.6699999999999998E-4</v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+    </row>
+    <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="2">
+        <v>7.5000000000000002E-7</v>
+      </c>
+      <c r="C6" s="2">
+        <v>4.1999999999999996E-6</v>
+      </c>
+      <c r="D6" s="7">
+        <v>6.7000000000000002E-5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1.6479999999999999</v>
+      </c>
+      <c r="G6" s="3">
+        <v>2404.1999999999998</v>
+      </c>
+      <c r="H6" s="8">
+        <v>3.7168999999999999E-4</v>
+      </c>
+      <c r="I6" s="18">
+        <v>3.8099999999999999E-4</v>
+      </c>
+      <c r="J6" s="8">
+        <v>3.7500000000000001E-4</v>
+      </c>
+      <c r="K6" s="8">
+        <v>3.7599999999999998E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="10">
+        <v>7.3000000000000004E-6</v>
+      </c>
+      <c r="C7" s="10">
+        <v>4.6999999999999997E-5</v>
+      </c>
+      <c r="D7" s="11">
+        <v>4.6999999999999999E-4</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="F7" s="12">
+        <v>1.2310000000000001</v>
+      </c>
+      <c r="G7" s="12">
+        <v>1900.2</v>
+      </c>
+      <c r="H7" s="14">
+        <v>4.7324999999999998E-4</v>
+      </c>
+      <c r="I7" s="18">
+        <v>4.7100000000000001E-4</v>
+      </c>
+      <c r="J7" s="14">
+        <v>3.8299999999999999E-4</v>
+      </c>
+      <c r="K7" s="14">
+        <v>3.8200000000000002E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="10">
+        <v>1.1E-4</v>
+      </c>
+      <c r="C8" s="10">
+        <v>5.8E-4</v>
+      </c>
+      <c r="D8" s="11">
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="E8" s="10">
+        <v>1</v>
+      </c>
+      <c r="F8" s="12">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="G8" s="12">
+        <v>1284.9000000000001</v>
+      </c>
+      <c r="H8" s="14">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="I8" s="18">
+        <v>1.6329999999999999E-3</v>
+      </c>
+      <c r="J8" s="14">
+        <v>6.2699999999999995E-4</v>
+      </c>
+      <c r="K8" s="14">
+        <v>6.8499999999999995E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="C9" s="10">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="D9" s="11">
+        <v>2.07E-2</v>
+      </c>
+      <c r="E9" s="10">
+        <v>1</v>
+      </c>
+      <c r="F9" s="12">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="G9" s="12">
+        <v>746.2</v>
+      </c>
+      <c r="H9" s="14">
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="I9" s="18">
+        <v>6.6610000000000003E-3</v>
+      </c>
+      <c r="J9" s="14">
+        <v>3.8370000000000001E-3</v>
+      </c>
+      <c r="K9" s="14">
+        <v>3.5349999999999999E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="10">
+        <v>1.54E-2</v>
+      </c>
+      <c r="C10" s="10">
+        <v>6.1499999999999999E-2</v>
+      </c>
+      <c r="D10" s="11">
+        <v>0.159</v>
+      </c>
+      <c r="E10" s="10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="12">
+        <v>0.106</v>
+      </c>
+      <c r="G10" s="12">
+        <v>269.39999999999998</v>
+      </c>
+      <c r="H10" s="14">
+        <v>4.8800000000000003E-2</v>
+      </c>
+      <c r="I10" s="18">
+        <v>4.9966999999999998E-2</v>
+      </c>
+      <c r="J10" s="14">
+        <v>3.7110999999999998E-2</v>
+      </c>
+      <c r="K10" s="14">
+        <v>3.7110999999999998E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="15">
+        <v>0.1875</v>
+      </c>
+      <c r="C11" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="D11" s="16">
+        <v>0.87990000000000002</v>
+      </c>
+      <c r="E11" s="15">
+        <v>1</v>
+      </c>
+      <c r="F11" s="17">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="G11" s="17">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H11" s="18">
+        <v>0.27050000000000002</v>
+      </c>
+      <c r="I11" s="18">
+        <v>0.28976800000000003</v>
+      </c>
+      <c r="J11" s="18">
+        <v>0.29901899999999998</v>
+      </c>
+      <c r="K11" s="18">
+        <v>0.29901899999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84876B7-FB3D-C44A-B4D4-B488BBEA2817}">
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="19" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <f>'mul 8'!D6</f>
+        <v>1.9E-2</v>
+      </c>
+      <c r="B3">
+        <f>'mul 8'!I6</f>
+        <v>5.3800000000000002E-3</v>
+      </c>
+      <c r="C3">
+        <f>'mul 8'!J6</f>
+        <v>6.8079999999999998E-3</v>
+      </c>
+      <c r="D3">
+        <f>'mul 8'!K6</f>
+        <v>6.8970000000000004E-3</v>
+      </c>
+      <c r="E3">
+        <f>MAX(C3:D3)</f>
+        <v>6.8970000000000004E-3</v>
+      </c>
+      <c r="F3">
+        <f>IF(E3&lt;B3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f>MIN(C3:D3)</f>
+        <v>6.8079999999999998E-3</v>
+      </c>
+      <c r="H3">
+        <f>IF(G3&lt;B3,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <f>'mul 8'!D7</f>
+        <v>4.7300000000000002E-2</v>
+      </c>
+      <c r="B4">
+        <f>'mul 8'!I7</f>
+        <v>1.2063000000000001E-2</v>
+      </c>
+      <c r="C4">
+        <f>'mul 8'!J7</f>
+        <v>8.3610000000000004E-3</v>
+      </c>
+      <c r="D4">
+        <f>'mul 8'!K7</f>
+        <v>7.0860000000000003E-3</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E8" si="0">MAX(C4:D4)</f>
+        <v>8.3610000000000004E-3</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F8" si="1">IF(E4&lt;B4,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G8" si="2">MIN(C4:D4)</f>
+        <v>7.0860000000000003E-3</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H8" si="3">IF(G4&lt;B4,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <f>'mul 8'!D8</f>
+        <v>0.12139999999999999</v>
+      </c>
+      <c r="B5">
+        <f>'mul 8'!I8</f>
+        <v>3.0029E-2</v>
+      </c>
+      <c r="C5">
+        <f>'mul 8'!J8</f>
+        <v>3.1300000000000001E-2</v>
+      </c>
+      <c r="D5">
+        <f>'mul 8'!K8</f>
+        <v>1.5914000000000001E-2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>3.1300000000000001E-2</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>1.5914000000000001E-2</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <f>'mul 8'!D9</f>
+        <v>0.28420000000000001</v>
+      </c>
+      <c r="B6">
+        <f>'mul 8'!I9</f>
+        <v>7.0487999999999995E-2</v>
+      </c>
+      <c r="C6">
+        <f>'mul 8'!J9</f>
+        <v>4.4603999999999998E-2</v>
+      </c>
+      <c r="D6">
+        <f>'mul 8'!K9</f>
+        <v>4.1980000000000003E-2</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>4.4603999999999998E-2</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>4.1980000000000003E-2</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <f>'mul 8'!D10</f>
+        <v>0.57809999999999995</v>
+      </c>
+      <c r="B7">
+        <f>'mul 8'!I10</f>
+        <v>0.14663000000000001</v>
+      </c>
+      <c r="C7">
+        <f>'mul 8'!J10</f>
+        <v>0.176978</v>
+      </c>
+      <c r="D7">
+        <f>'mul 8'!K10</f>
+        <v>9.9318000000000004E-2</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0.176978</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>9.9318000000000004E-2</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <f>'mul 8'!D11</f>
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <f>'mul 8'!I11</f>
+        <v>0.26458900000000002</v>
+      </c>
+      <c r="C8">
+        <f>'mul 8'!J11</f>
+        <v>0.20146500000000001</v>
+      </c>
+      <c r="D8">
+        <f>'mul 8'!K11</f>
+        <v>0.20146500000000001</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0.20146500000000001</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>0.20146500000000001</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="19" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <f>'mul12'!D5</f>
+        <v>2.5999999999999998E-4</v>
+      </c>
+      <c r="B12">
+        <f>'mul12'!I5</f>
+        <v>5.7899999999999998E-4</v>
+      </c>
+      <c r="C12">
+        <f>'mul12'!J5</f>
+        <v>9.4899999999999997E-4</v>
+      </c>
+      <c r="D12">
+        <f>'mul12'!K5</f>
+        <v>9.4899999999999997E-4</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ref="E12" si="4">MAX(C12:D12)</f>
+        <v>9.4899999999999997E-4</v>
+      </c>
+      <c r="F12">
+        <f>IF(E12&lt;B12,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ref="G12" si="5">MIN(C12:D12)</f>
+        <v>9.4899999999999997E-4</v>
+      </c>
+      <c r="H12">
+        <f t="shared" ref="H12" si="6">IF(G12&lt;B12,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <f>'mul12'!D6</f>
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="B13">
+        <f>'mul12'!I6</f>
+        <v>1.2260000000000001E-3</v>
+      </c>
+      <c r="C13">
+        <f>'mul12'!J6</f>
+        <v>1.1509999999999999E-3</v>
+      </c>
+      <c r="D13">
+        <f>'mul12'!K6</f>
+        <v>1.1509999999999999E-3</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ref="E13:E18" si="7">MAX(C13:D13)</f>
+        <v>1.1509999999999999E-3</v>
+      </c>
+      <c r="F13">
+        <f>IF(E13&lt;B13,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ref="G13:G18" si="8">MIN(C13:D13)</f>
+        <v>1.1509999999999999E-3</v>
+      </c>
+      <c r="H13">
+        <f t="shared" ref="H13:H18" si="9">IF(G13&lt;B13,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <f>'mul12'!D7</f>
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="B14">
+        <f>'mul12'!I7</f>
+        <v>4.0769999999999999E-3</v>
+      </c>
+      <c r="C14">
+        <f>'mul12'!J7</f>
+        <v>2.2539999999999999E-3</v>
+      </c>
+      <c r="D14">
+        <f>'mul12'!K7</f>
+        <v>2.2539999999999999E-3</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="7"/>
+        <v>2.2539999999999999E-3</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ref="F14:F18" si="10">IF(E14&lt;B14,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="8"/>
+        <v>2.2539999999999999E-3</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <f>'mul12'!D8</f>
+        <v>1.89E-2</v>
+      </c>
+      <c r="B15">
+        <f>'mul12'!I8</f>
+        <v>1.6135E-2</v>
+      </c>
+      <c r="C15">
+        <f>'mul12'!J8</f>
+        <v>7.1050000000000002E-3</v>
+      </c>
+      <c r="D15">
+        <f>'mul12'!K8</f>
+        <v>9.4870000000000006E-3</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="7"/>
+        <v>9.4870000000000006E-3</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="8"/>
+        <v>7.1050000000000002E-3</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <f>'mul12'!D9</f>
+        <v>7.8399999999999997E-2</v>
+      </c>
+      <c r="B16">
+        <f>'mul12'!I9</f>
+        <v>6.6832000000000003E-2</v>
+      </c>
+      <c r="C16">
+        <f>'mul12'!J9</f>
+        <v>4.1579999999999999E-2</v>
+      </c>
+      <c r="D16">
+        <f>'mul12'!K9</f>
+        <v>3.5889999999999998E-2</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="7"/>
+        <v>4.1579999999999999E-2</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="8"/>
+        <v>3.5889999999999998E-2</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <f>'mul12'!D10</f>
+        <v>0.2671</v>
+      </c>
+      <c r="B17">
+        <f>'mul12'!I10</f>
+        <v>0.23099800000000001</v>
+      </c>
+      <c r="C17">
+        <f>'mul12'!J10</f>
+        <v>0.20146500000000001</v>
+      </c>
+      <c r="D17">
+        <f>'mul12'!K10</f>
+        <v>0.20146500000000001</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="7"/>
+        <v>0.20146500000000001</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="8"/>
+        <v>0.20146500000000001</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <f>'mul12'!D11</f>
+        <v>0.87980000000000003</v>
+      </c>
+      <c r="B18">
+        <f>'mul12'!I11</f>
+        <v>0.78719700000000004</v>
+      </c>
+      <c r="C18">
+        <f>'mul12'!J11</f>
+        <v>0.75238000000000005</v>
+      </c>
+      <c r="D18">
+        <f>'mul12'!K11</f>
+        <v>0.75238000000000005</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="7"/>
+        <v>0.75238000000000005</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="8"/>
+        <v>0.75238000000000005</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="19" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A21" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <f>'mul16'!D6</f>
+        <v>6.7000000000000002E-5</v>
+      </c>
+      <c r="B22" s="19">
+        <f>'mul16'!I6</f>
+        <v>3.8099999999999999E-4</v>
+      </c>
+      <c r="C22" s="19">
+        <f>'mul16'!J6</f>
+        <v>3.7500000000000001E-4</v>
+      </c>
+      <c r="D22" s="19">
+        <f>'mul16'!K6</f>
+        <v>3.7599999999999998E-4</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ref="E22:E27" si="11">MAX(C22:D22)</f>
+        <v>3.7599999999999998E-4</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ref="F22:F27" si="12">IF(E22&lt;B22,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <f t="shared" ref="G22:G27" si="13">MIN(C22:D22)</f>
+        <v>3.7500000000000001E-4</v>
+      </c>
+      <c r="H22">
+        <f t="shared" ref="H22:H27" si="14">IF(G22&lt;B22,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <f>'mul16'!D7</f>
+        <v>4.6999999999999999E-4</v>
+      </c>
+      <c r="B23" s="19">
+        <f>'mul16'!I7</f>
+        <v>4.7100000000000001E-4</v>
+      </c>
+      <c r="C23" s="19">
+        <f>'mul16'!J7</f>
+        <v>3.8299999999999999E-4</v>
+      </c>
+      <c r="D23" s="19">
+        <f>'mul16'!K7</f>
+        <v>3.8200000000000002E-4</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="11"/>
+        <v>3.8299999999999999E-4</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="13"/>
+        <v>3.8200000000000002E-4</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <f>'mul16'!D8</f>
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="B24" s="19">
+        <f>'mul16'!I8</f>
+        <v>1.6329999999999999E-3</v>
+      </c>
+      <c r="C24" s="19">
+        <f>'mul16'!J8</f>
+        <v>6.2699999999999995E-4</v>
+      </c>
+      <c r="D24" s="19">
+        <f>'mul16'!K8</f>
+        <v>6.8499999999999995E-4</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="11"/>
+        <v>6.8499999999999995E-4</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="13"/>
+        <v>6.2699999999999995E-4</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <f>'mul16'!D9</f>
+        <v>2.07E-2</v>
+      </c>
+      <c r="B25" s="19">
+        <f>'mul16'!I9</f>
+        <v>6.6610000000000003E-3</v>
+      </c>
+      <c r="C25" s="19">
+        <f>'mul16'!J9</f>
+        <v>3.8370000000000001E-3</v>
+      </c>
+      <c r="D25" s="19">
+        <f>'mul16'!K9</f>
+        <v>3.5349999999999999E-3</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="11"/>
+        <v>3.8370000000000001E-3</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="13"/>
+        <v>3.5349999999999999E-3</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <f>'mul16'!D10</f>
+        <v>0.159</v>
+      </c>
+      <c r="B26" s="19">
+        <f>'mul16'!I10</f>
+        <v>4.9966999999999998E-2</v>
+      </c>
+      <c r="C26" s="19">
+        <f>'mul16'!J10</f>
+        <v>3.7110999999999998E-2</v>
+      </c>
+      <c r="D26" s="19">
+        <f>'mul16'!K10</f>
+        <v>3.7110999999999998E-2</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="11"/>
+        <v>3.7110999999999998E-2</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="13"/>
+        <v>3.7110999999999998E-2</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <f>'mul16'!D11</f>
+        <v>0.87990000000000002</v>
+      </c>
+      <c r="B27" s="19">
+        <f>'mul16'!I11</f>
+        <v>0.28976800000000003</v>
+      </c>
+      <c r="C27" s="19">
+        <f>'mul16'!J11</f>
+        <v>0.29901899999999998</v>
+      </c>
+      <c r="D27" s="19">
+        <f>'mul16'!K11</f>
+        <v>0.29901899999999998</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="11"/>
+        <v>0.29901899999999998</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="13"/>
+        <v>0.29901899999999998</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>